--- a/BEMFSimulation/ExcelResults/LineVoltage5000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage5000.xlsx
@@ -408,13 +408,13 @@
         <v>3.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>-325.1342086118972</v>
+        <v>-328.1949133013741</v>
       </c>
       <c r="C2">
-        <v>675.0687705638325</v>
+        <v>687.902741989186</v>
       </c>
       <c r="D2">
-        <v>-349.9345619519353</v>
+        <v>-359.7078286878119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B3">
-        <v>-292.8668449050975</v>
+        <v>-301.0718095251143</v>
       </c>
       <c r="C3">
-        <v>655.9096642631259</v>
+        <v>676.7819749361754</v>
       </c>
       <c r="D3">
-        <v>-363.0428193580284</v>
+        <v>-375.7101654110612</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001</v>
       </c>
       <c r="B4">
-        <v>-225.764141492306</v>
+        <v>-239.5168968022394</v>
       </c>
       <c r="C4">
-        <v>616.3319050285161</v>
+        <v>641.8776214923939</v>
       </c>
       <c r="D4">
-        <v>-390.5677635362101</v>
+        <v>-402.3607246901544</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B5">
-        <v>-137.6284470468624</v>
+        <v>-134.9794872977241</v>
       </c>
       <c r="C5">
-        <v>566.9603656541055</v>
+        <v>568.3574461326684</v>
       </c>
       <c r="D5">
-        <v>-429.3319186072432</v>
+        <v>-433.3779588349443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B6">
-        <v>-66.33453315257222</v>
+        <v>-63.97138881841582</v>
       </c>
       <c r="C6">
-        <v>533.748536009433</v>
+        <v>550.370454797051</v>
       </c>
       <c r="D6">
-        <v>-467.4140028568608</v>
+        <v>-486.3990659786352</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002</v>
       </c>
       <c r="B7">
-        <v>-29.58035164800199</v>
+        <v>-32.26820757515208</v>
       </c>
       <c r="C7">
-        <v>516.8109837128176</v>
+        <v>534.4663385444953</v>
       </c>
       <c r="D7">
-        <v>-487.2306320648156</v>
+        <v>-502.1981309693432</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002333333333333334</v>
       </c>
       <c r="B8">
-        <v>-8.062375796325512</v>
+        <v>-12.06916202229763</v>
       </c>
       <c r="C8">
-        <v>518.9813679252719</v>
+        <v>526.8337872947283</v>
       </c>
       <c r="D8">
-        <v>-510.9189921289464</v>
+        <v>-514.7646252724306</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B9">
-        <v>7.661208265841424</v>
+        <v>9.264667730182055</v>
       </c>
       <c r="C9">
-        <v>512.6756241022528</v>
+        <v>517.1683604126531</v>
       </c>
       <c r="D9">
-        <v>-520.3368323680942</v>
+        <v>-526.4330281428352</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003000000000000001</v>
       </c>
       <c r="B10">
-        <v>29.18649056455448</v>
+        <v>32.75817459683569</v>
       </c>
       <c r="C10">
-        <v>488.5639333671343</v>
+        <v>498.4025501928263</v>
       </c>
       <c r="D10">
-        <v>-517.7504239316887</v>
+        <v>-531.160724789662</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B11">
-        <v>65.46485668124851</v>
+        <v>65.76489837372552</v>
       </c>
       <c r="C11">
-        <v>469.1148596974019</v>
+        <v>492.5719477857966</v>
       </c>
       <c r="D11">
-        <v>-534.5797163786503</v>
+        <v>-558.3368461595221</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003666666666666668</v>
       </c>
       <c r="B12">
-        <v>137.0415791479745</v>
+        <v>140.9817060836469</v>
       </c>
       <c r="C12">
-        <v>430.7687227423436</v>
+        <v>435.2316370974463</v>
       </c>
       <c r="D12">
-        <v>-567.8103018903181</v>
+        <v>-576.2133431810933</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B13">
-        <v>224.3482435426422</v>
+        <v>233.6414950883353</v>
       </c>
       <c r="C13">
-        <v>391.7715829690246</v>
+        <v>397.1721599032191</v>
       </c>
       <c r="D13">
-        <v>-616.1198265116668</v>
+        <v>-630.8136549915544</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004333333333333335</v>
       </c>
       <c r="B14">
-        <v>292.1483869135286</v>
+        <v>304.6043524718062</v>
       </c>
       <c r="C14">
-        <v>363.026453540237</v>
+        <v>375.483459441808</v>
       </c>
       <c r="D14">
-        <v>-655.1748404537656</v>
+        <v>-680.0878119136141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B15">
-        <v>324.2103236866357</v>
+        <v>325.9211529056141</v>
       </c>
       <c r="C15">
-        <v>348.874636282918</v>
+        <v>357.6072890562241</v>
       </c>
       <c r="D15">
-        <v>-673.0849599695537</v>
+        <v>-683.5284419618382</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B16">
-        <v>345.3152499641953</v>
+        <v>349.5943896481099</v>
       </c>
       <c r="C16">
-        <v>344.7637160699942</v>
+        <v>350.9815193556219</v>
       </c>
       <c r="D16">
-        <v>-690.0789660341895</v>
+        <v>-700.5759090037318</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B17">
-        <v>349.1163155186009</v>
+        <v>357.5927659281057</v>
       </c>
       <c r="C17">
-        <v>325.2338977861918</v>
+        <v>328.4697394241122</v>
       </c>
       <c r="D17">
-        <v>-674.3502133047926</v>
+        <v>-686.0625053522178</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0005666666666666668</v>
       </c>
       <c r="B18">
-        <v>362.0318482719481</v>
+        <v>375.7190369718205</v>
       </c>
       <c r="C18">
-        <v>293.0520674486578</v>
+        <v>302.3446645989379</v>
       </c>
       <c r="D18">
-        <v>-655.0839157206059</v>
+        <v>-678.0637015707584</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B19">
-        <v>391.1589870253018</v>
+        <v>403.9815369221459</v>
       </c>
       <c r="C19">
-        <v>226.5695659443272</v>
+        <v>239.7012114110579</v>
       </c>
       <c r="D19">
-        <v>-617.7285529696289</v>
+        <v>-643.6827483332038</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0006333333333333335</v>
       </c>
       <c r="B20">
-        <v>430.554779139589</v>
+        <v>434.8042390697377</v>
       </c>
       <c r="C20">
-        <v>137.7560835759753</v>
+        <v>136.3974203371178</v>
       </c>
       <c r="D20">
-        <v>-568.3108627155643</v>
+        <v>-571.2016594068555</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B21">
-        <v>468.5471478591026</v>
+        <v>488.1392717400645</v>
       </c>
       <c r="C21">
-        <v>66.11969414588665</v>
+        <v>65.19610954837873</v>
       </c>
       <c r="D21">
-        <v>-534.6668420049892</v>
+        <v>-553.3353812884433</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007000000000000002</v>
       </c>
       <c r="B22">
-        <v>487.8546930956089</v>
+        <v>502.268425348233</v>
       </c>
       <c r="C22">
-        <v>29.9268190520327</v>
+        <v>32.90511053245581</v>
       </c>
       <c r="D22">
-        <v>-517.7815121476416</v>
+        <v>-535.1735358806889</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B23">
-        <v>511.050387924681</v>
+        <v>515.7642316890144</v>
       </c>
       <c r="C23">
-        <v>8.306192015779516</v>
+        <v>10.99511020001762</v>
       </c>
       <c r="D23">
-        <v>-519.3565799404605</v>
+        <v>-526.7593418890322</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0007666666666666669</v>
       </c>
       <c r="B24">
-        <v>519.9965654157054</v>
+        <v>528.9070997441837</v>
       </c>
       <c r="C24">
-        <v>-7.802310030456397</v>
+        <v>-10.6141069381803</v>
       </c>
       <c r="D24">
-        <v>-512.1942553852489</v>
+        <v>-518.2929928060034</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B25">
-        <v>518.4426275928333</v>
+        <v>532.4141703196823</v>
       </c>
       <c r="C25">
-        <v>-29.59816658047038</v>
+        <v>-32.62774845100358</v>
       </c>
       <c r="D25">
-        <v>-488.8444610123629</v>
+        <v>-499.7864218686786</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0008333333333333336</v>
       </c>
       <c r="B26">
-        <v>535.6536573144271</v>
+        <v>556.895657943634</v>
       </c>
       <c r="C26">
-        <v>-65.57940056559437</v>
+        <v>-64.20741215542381</v>
       </c>
       <c r="D26">
-        <v>-470.0742567488327</v>
+        <v>-492.6882457882101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B27">
-        <v>569.0657575813121</v>
+        <v>573.7779371578722</v>
       </c>
       <c r="C27">
-        <v>-136.9976121843688</v>
+        <v>-138.7551748951082</v>
       </c>
       <c r="D27">
-        <v>-432.0681453969434</v>
+        <v>-435.022762262764</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0009000000000000003</v>
       </c>
       <c r="B28">
-        <v>618.2824294058814</v>
+        <v>631.7826815302572</v>
       </c>
       <c r="C28">
-        <v>-225.0612130235818</v>
+        <v>-234.0476939807622</v>
       </c>
       <c r="D28">
-        <v>-393.2212163822996</v>
+        <v>-397.734987549495</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B29">
-        <v>656.3795648553435</v>
+        <v>682.8351396496068</v>
       </c>
       <c r="C29">
-        <v>-292.8933132863763</v>
+        <v>-305.8524150073418</v>
       </c>
       <c r="D29">
-        <v>-363.4862515689671</v>
+        <v>-376.982724642265</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.000966666666666667</v>
       </c>
       <c r="B30">
-        <v>673.0809431583122</v>
+        <v>685.87592640914</v>
       </c>
       <c r="C30">
-        <v>-324.5982775851658</v>
+        <v>-326.8873653971882</v>
       </c>
       <c r="D30">
-        <v>-348.4826655731464</v>
+        <v>-358.9885610119518</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001</v>
       </c>
       <c r="B31">
-        <v>689.5377527936444</v>
+        <v>699.104021951812</v>
       </c>
       <c r="C31">
-        <v>-345.1969440358416</v>
+        <v>-349.4752166817178</v>
       </c>
       <c r="D31">
-        <v>-344.3408087578028</v>
+        <v>-349.6288052700941</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001033333333333334</v>
       </c>
       <c r="B32">
-        <v>673.8371029658911</v>
+        <v>681.8110527408921</v>
       </c>
       <c r="C32">
-        <v>-349.1271535119807</v>
+        <v>-356.607686612186</v>
       </c>
       <c r="D32">
-        <v>-324.7099494539104</v>
+        <v>-325.2033661287061</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B33">
-        <v>654.7116249211904</v>
+        <v>676.1407325785822</v>
       </c>
       <c r="C33">
-        <v>-362.2290216383274</v>
+        <v>-375.0110354085526</v>
       </c>
       <c r="D33">
-        <v>-292.482603282863</v>
+        <v>-301.1296971700297</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0011</v>
       </c>
       <c r="B34">
-        <v>617.2202513906971</v>
+        <v>644.1893022039051</v>
       </c>
       <c r="C34">
-        <v>-390.9641956852178</v>
+        <v>-403.3898033870827</v>
       </c>
       <c r="D34">
-        <v>-226.2560557054792</v>
+        <v>-240.7994988168224</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B35">
-        <v>567.945807842264</v>
+        <v>569.8976393632545</v>
       </c>
       <c r="C35">
-        <v>-430.1474374357615</v>
+        <v>-433.218953128655</v>
       </c>
       <c r="D35">
-        <v>-137.7983704065025</v>
+        <v>-136.6786862345995</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B36">
-        <v>534.5306048557504</v>
+        <v>550.820765700571</v>
       </c>
       <c r="C36">
-        <v>-468.1333067122253</v>
+        <v>-486.6180036283788</v>
       </c>
       <c r="D36">
-        <v>-66.39729814352515</v>
+        <v>-64.20276207219217</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.0012</v>
       </c>
       <c r="B37">
-        <v>517.9835029481119</v>
+        <v>534.486509855181</v>
       </c>
       <c r="C37">
-        <v>-488.1759579013075</v>
+        <v>-502.7277756627202</v>
       </c>
       <c r="D37">
-        <v>-29.80754504680436</v>
+        <v>-31.75873419246079</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001233333333333334</v>
       </c>
       <c r="B38">
-        <v>519.501828363999</v>
+        <v>526.7460843259221</v>
       </c>
       <c r="C38">
-        <v>-511.3959741504729</v>
+        <v>-515.3524438519263</v>
       </c>
       <c r="D38">
-        <v>-8.105854213526214</v>
+        <v>-11.39364047399587</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B39">
-        <v>512.8630713060535</v>
+        <v>518.3844836126357</v>
       </c>
       <c r="C39">
-        <v>-520.8795063815598</v>
+        <v>-527.9831845506983</v>
       </c>
       <c r="D39">
-        <v>8.016435075506308</v>
+        <v>9.598700938062677</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.0013</v>
       </c>
       <c r="B40">
-        <v>488.2115226493716</v>
+        <v>499.4230162833638</v>
       </c>
       <c r="C40">
-        <v>-517.713400755066</v>
+        <v>-531.7818233414374</v>
       </c>
       <c r="D40">
-        <v>29.50187810569437</v>
+        <v>32.35880705807355</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B41">
-        <v>469.329779884431</v>
+        <v>494.2331163664467</v>
       </c>
       <c r="C41">
-        <v>-534.8091918197432</v>
+        <v>-559.2784734827912</v>
       </c>
       <c r="D41">
-        <v>65.47941193531221</v>
+        <v>65.04535711634449</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001366666666666667</v>
       </c>
       <c r="B42">
-        <v>431.399334906719</v>
+        <v>435.2978021793583</v>
       </c>
       <c r="C42">
-        <v>-568.2804601433214</v>
+        <v>-575.8670298998779</v>
       </c>
       <c r="D42">
-        <v>136.8811252366024</v>
+        <v>140.5692277205196</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.0014</v>
       </c>
       <c r="B43">
-        <v>392.2757917500157</v>
+        <v>397.8560337080997</v>
       </c>
       <c r="C43">
-        <v>-617.0694417673728</v>
+        <v>-632.7543200582877</v>
       </c>
       <c r="D43">
-        <v>224.7936500173571</v>
+        <v>234.898286350188</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001433333333333334</v>
       </c>
       <c r="B44">
-        <v>363.3656961961083</v>
+        <v>376.7850039906595</v>
       </c>
       <c r="C44">
-        <v>-656.3108453457571</v>
+        <v>-682.4669530360296</v>
       </c>
       <c r="D44">
-        <v>292.9451491496488</v>
+        <v>305.6819490453701</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B45">
-        <v>349.2503287109171</v>
+        <v>357.3194275597724</v>
       </c>
       <c r="C45">
-        <v>-674.4382371290144</v>
+        <v>-682.2823719648402</v>
       </c>
       <c r="D45">
-        <v>325.1879084180973</v>
+        <v>324.9629444050678</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.0015</v>
       </c>
       <c r="B46">
-        <v>345.3533287368259</v>
+        <v>352.0032557889103</v>
       </c>
       <c r="C46">
-        <v>-691.5485115829995</v>
+        <v>-703.4216841990758</v>
       </c>
       <c r="D46">
-        <v>346.1951828461736</v>
+        <v>351.4184284101655</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B47">
-        <v>325.0902310901513</v>
+        <v>328.1589170146156</v>
       </c>
       <c r="C47">
-        <v>-675.0287713369305</v>
+        <v>-687.8808036306121</v>
       </c>
       <c r="D47">
-        <v>349.9385402467793</v>
+        <v>359.7218866159965</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001566666666666667</v>
       </c>
       <c r="B48">
-        <v>292.8102396831948</v>
+        <v>301.0319875942285</v>
       </c>
       <c r="C48">
-        <v>-655.8865573301382</v>
+        <v>-676.7814291845964</v>
       </c>
       <c r="D48">
-        <v>363.0763176469434</v>
+        <v>375.749441590368</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B49">
-        <v>225.6341135656556</v>
+        <v>239.3615964863156</v>
       </c>
       <c r="C49">
-        <v>-616.2520410941058</v>
+        <v>-641.7549701191291</v>
       </c>
       <c r="D49">
-        <v>390.6179275284502</v>
+        <v>402.3933736328135</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001633333333333334</v>
       </c>
       <c r="B50">
-        <v>137.5105125868938</v>
+        <v>134.8554646793544</v>
       </c>
       <c r="C50">
-        <v>-566.8988129145075</v>
+        <v>-568.3024243312981</v>
       </c>
       <c r="D50">
-        <v>429.3883003276138</v>
+        <v>433.4469596519436</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B51">
-        <v>66.2558576650965</v>
+        <v>63.89480597668722</v>
       </c>
       <c r="C51">
-        <v>-533.715815967583</v>
+        <v>-550.3552051055178</v>
       </c>
       <c r="D51">
-        <v>467.4599583024865</v>
+        <v>486.4603991288306</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001700000000000001</v>
       </c>
       <c r="B52">
-        <v>29.54384941349448</v>
+        <v>32.24222775375651</v>
       </c>
       <c r="C52">
-        <v>-516.7978045068503</v>
+        <v>-534.4369485136004</v>
       </c>
       <c r="D52">
-        <v>487.2539550933559</v>
+        <v>502.1947207598439</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B53">
-        <v>8.037414776395366</v>
+        <v>12.04071653991349</v>
       </c>
       <c r="C53">
-        <v>-518.9912516964563</v>
+        <v>-526.8417447060615</v>
       </c>
       <c r="D53">
-        <v>510.9538369200609</v>
+        <v>514.8010281661479</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001766666666666667</v>
       </c>
       <c r="B54">
-        <v>-7.685696425594728</v>
+        <v>-9.297216229779679</v>
       </c>
       <c r="C54">
-        <v>-512.6455593438407</v>
+        <v>-517.1352598882638</v>
       </c>
       <c r="D54">
-        <v>520.3312557694354</v>
+        <v>526.4324761180435</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B55">
-        <v>-29.22351349690933</v>
+        <v>-32.79868613841748</v>
       </c>
       <c r="C55">
-        <v>-488.5384617375678</v>
+        <v>-498.3808701759217</v>
       </c>
       <c r="D55">
-        <v>517.7619752344771</v>
+        <v>531.1795563143392</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B56">
-        <v>-65.54214657111672</v>
+        <v>-65.83657875391464</v>
       </c>
       <c r="C56">
-        <v>-469.067554624059</v>
+        <v>-492.539094777574</v>
       </c>
       <c r="D56">
-        <v>534.6097011951757</v>
+        <v>558.3756735314886</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B57">
-        <v>-137.1598683864052</v>
+        <v>-141.1035611626414</v>
       </c>
       <c r="C57">
-        <v>-430.7136374493209</v>
+        <v>-435.1448144465272</v>
       </c>
       <c r="D57">
-        <v>567.8735058357261</v>
+        <v>576.2483756091686</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001900000000000001</v>
       </c>
       <c r="B58">
-        <v>-224.4768218097423</v>
+        <v>-233.7793028248485</v>
       </c>
       <c r="C58">
-        <v>-391.7180261788838</v>
+        <v>-397.136873481926</v>
       </c>
       <c r="D58">
-        <v>616.1948479886261</v>
+        <v>630.9161763067746</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B59">
-        <v>-292.2096349036869</v>
+        <v>-304.6579686482739</v>
       </c>
       <c r="C59">
-        <v>-362.9968276769676</v>
+        <v>-375.4537898364937</v>
       </c>
       <c r="D59">
-        <v>655.2064625806545</v>
+        <v>680.1117584847675</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001966666666666667</v>
       </c>
       <c r="B60">
-        <v>-324.2498313678968</v>
+        <v>-325.9548152854022</v>
       </c>
       <c r="C60">
-        <v>-348.8634873110423</v>
+        <v>-357.5909799613038</v>
       </c>
       <c r="D60">
-        <v>673.1133186789391</v>
+        <v>683.5457952467059</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002</v>
       </c>
       <c r="B61">
-        <v>-345.3298254749941</v>
+        <v>-349.6162631182635</v>
       </c>
       <c r="C61">
-        <v>-344.7523218352457</v>
+        <v>-350.9625798673584</v>
       </c>
       <c r="D61">
-        <v>690.0821473102397</v>
+        <v>700.5788429856218</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002033333333333334</v>
       </c>
       <c r="B62">
-        <v>-349.1238488287765</v>
+        <v>-357.6052633512905</v>
       </c>
       <c r="C62">
-        <v>-325.1937477348183</v>
+        <v>-328.4339385291938</v>
       </c>
       <c r="D62">
-        <v>674.3175965635947</v>
+        <v>686.0392018804844</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B63">
-        <v>-362.0625738152684</v>
+        <v>-375.7639357138087</v>
       </c>
       <c r="C63">
-        <v>-292.9929829716198</v>
+        <v>-302.3065800980541</v>
       </c>
       <c r="D63">
-        <v>655.055556786888</v>
+        <v>678.0705158118628</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0021</v>
       </c>
       <c r="B64">
-        <v>-391.2132605874367</v>
+        <v>-404.0145111809499</v>
       </c>
       <c r="C64">
-        <v>-226.4409448904833</v>
+        <v>-239.5444611133564</v>
       </c>
       <c r="D64">
-        <v>617.65420547792</v>
+        <v>643.5589722943064</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002133333333333333</v>
       </c>
       <c r="B65">
-        <v>-430.6114243291463</v>
+        <v>-434.8729277588869</v>
       </c>
       <c r="C65">
-        <v>-137.635994504328</v>
+        <v>-136.2737285582533</v>
       </c>
       <c r="D65">
-        <v>568.2474188334743</v>
+        <v>571.1466563171402</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B66">
-        <v>-468.5903638592763</v>
+        <v>-488.2022047426152</v>
       </c>
       <c r="C66">
-        <v>-66.04177982678095</v>
+        <v>-65.12082124161407</v>
       </c>
       <c r="D66">
-        <v>534.6321436860572</v>
+        <v>553.3230259842293</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002199999999999999</v>
       </c>
       <c r="B67">
-        <v>-487.8803450328134</v>
+        <v>-502.2659884885137</v>
       </c>
       <c r="C67">
-        <v>-29.8905682695702</v>
+        <v>-32.87614533143412</v>
       </c>
       <c r="D67">
-        <v>517.7709133023836</v>
+        <v>535.1421338199478</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002233333333333332</v>
       </c>
       <c r="B68">
-        <v>-511.0830118484433</v>
+        <v>-515.7987084767915</v>
       </c>
       <c r="C68">
-        <v>-8.280675158054407</v>
+        <v>-10.96565839924651</v>
       </c>
       <c r="D68">
-        <v>519.3636870064977</v>
+        <v>526.764366876038</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002266666666666666</v>
       </c>
       <c r="B69">
-        <v>-519.9916841922295</v>
+        <v>-528.9065826060348</v>
       </c>
       <c r="C69">
-        <v>7.827250173473004</v>
+        <v>10.6461200680863</v>
       </c>
       <c r="D69">
-        <v>512.1644340187565</v>
+        <v>518.2604625379485</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002299999999999999</v>
       </c>
       <c r="B70">
-        <v>-518.4541264348088</v>
+        <v>-532.430334687073</v>
       </c>
       <c r="C70">
-        <v>29.63559823432271</v>
+        <v>32.66534107350392</v>
       </c>
       <c r="D70">
-        <v>488.8185282004861</v>
+        <v>499.7649936135691</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002333333333333332</v>
       </c>
       <c r="B71">
-        <v>-535.6846782880521</v>
+        <v>-556.9339933240849</v>
       </c>
       <c r="C71">
-        <v>65.65599116723939</v>
+        <v>64.27750553256593</v>
       </c>
       <c r="D71">
-        <v>470.0286871208127</v>
+        <v>492.656487791519</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002366666666666665</v>
       </c>
       <c r="B72">
-        <v>-569.1297305213783</v>
+        <v>-573.8097707774377</v>
       </c>
       <c r="C72">
-        <v>137.1166705434437</v>
+        <v>138.8776698065267</v>
       </c>
       <c r="D72">
-        <v>432.0130599779346</v>
+        <v>434.9321009709111</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002399999999999998</v>
       </c>
       <c r="B73">
-        <v>-618.3597846835401</v>
+        <v>-631.8918272758591</v>
       </c>
       <c r="C73">
-        <v>225.1905975118826</v>
+        <v>234.1894182660897</v>
       </c>
       <c r="D73">
-        <v>393.1691871716575</v>
+        <v>397.7024090097694</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002433333333333331</v>
       </c>
       <c r="B74">
-        <v>-656.4020847061968</v>
+        <v>-682.8593709990799</v>
       </c>
       <c r="C74">
-        <v>292.951749102939</v>
+        <v>305.9058551923233</v>
       </c>
       <c r="D74">
-        <v>363.4503356032577</v>
+        <v>376.9535158067567</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002466666666666664</v>
       </c>
       <c r="B75">
-        <v>-673.1164831110341</v>
+        <v>-685.8886589093781</v>
       </c>
       <c r="C75">
-        <v>324.6409992124919</v>
+        <v>326.9191305198763</v>
       </c>
       <c r="D75">
-        <v>348.4754838985422</v>
+        <v>358.9695283895019</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002499999999999997</v>
       </c>
       <c r="B76">
-        <v>-689.5389837109891</v>
+        <v>-699.10529929267</v>
       </c>
       <c r="C76">
-        <v>345.2107391564369</v>
+        <v>349.4972945169681</v>
       </c>
       <c r="D76">
-        <v>344.3282445545522</v>
+        <v>349.6080047757019</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002533333333333331</v>
       </c>
       <c r="B77">
-        <v>-673.7982581816036</v>
+        <v>-681.785838445928</v>
       </c>
       <c r="C77">
-        <v>349.1311476387392</v>
+        <v>356.6197267732604</v>
       </c>
       <c r="D77">
-        <v>324.6671105428645</v>
+        <v>325.1661116726676</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002566666666666664</v>
       </c>
       <c r="B78">
-        <v>-654.6899168451123</v>
+        <v>-676.1467777779795</v>
       </c>
       <c r="C78">
-        <v>362.2634036717097</v>
+        <v>375.0520139389434</v>
       </c>
       <c r="D78">
-        <v>292.4265131734026</v>
+        <v>301.0947638390361</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002599999999999997</v>
       </c>
       <c r="B79">
-        <v>-617.1436869953675</v>
+        <v>-644.073011547214</v>
       </c>
       <c r="C79">
-        <v>391.017063316043</v>
+        <v>403.4260866918037</v>
       </c>
       <c r="D79">
-        <v>226.1266236793244</v>
+        <v>240.6469248554102</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00263333333333333</v>
       </c>
       <c r="B80">
-        <v>-567.8836794517605</v>
+        <v>-569.8373104944442</v>
       </c>
       <c r="C80">
-        <v>430.203754296304</v>
+        <v>433.2862235224638</v>
       </c>
       <c r="D80">
-        <v>137.6799251554565</v>
+        <v>136.5510869719803</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002666666666666663</v>
       </c>
       <c r="B81">
-        <v>-534.4935345481342</v>
+        <v>-550.8108994631414</v>
       </c>
       <c r="C81">
-        <v>468.1753961111946</v>
+        <v>486.6848132687011</v>
       </c>
       <c r="D81">
-        <v>66.31813843693962</v>
+        <v>64.12608619444026</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002699999999999996</v>
       </c>
       <c r="B82">
-        <v>-517.9724840845117</v>
+        <v>-534.4530735883985</v>
       </c>
       <c r="C82">
-        <v>488.2008845473079</v>
+        <v>502.7222698913494</v>
       </c>
       <c r="D82">
-        <v>29.77159953720385</v>
+        <v>31.73080369704914</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002733333333333329</v>
       </c>
       <c r="B83">
-        <v>-519.5071835368807</v>
+        <v>-526.7544973156315</v>
       </c>
       <c r="C83">
-        <v>511.4267817779767</v>
+        <v>515.3880889166112</v>
       </c>
       <c r="D83">
-        <v>8.080401758903946</v>
+        <v>11.36640839902032</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002766666666666663</v>
       </c>
       <c r="B84">
-        <v>-512.8331149290962</v>
+        <v>-518.3507351613869</v>
       </c>
       <c r="C84">
-        <v>520.8744025810726</v>
+        <v>527.9812108655748</v>
       </c>
       <c r="D84">
-        <v>-8.041287651976432</v>
+        <v>-9.630475704187916</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002799999999999996</v>
       </c>
       <c r="B85">
-        <v>-488.1878910099429</v>
+        <v>-499.4031062401027</v>
       </c>
       <c r="C85">
-        <v>517.7266101285659</v>
+        <v>531.8013931533189</v>
       </c>
       <c r="D85">
-        <v>-29.53871911862305</v>
+        <v>-32.39828691321623</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002833333333333329</v>
       </c>
       <c r="B86">
-        <v>-469.2863663041969</v>
+        <v>-494.2006445146902</v>
       </c>
       <c r="C86">
-        <v>534.8436046918943</v>
+        <v>559.3170665690385</v>
       </c>
       <c r="D86">
-        <v>-65.55723838769734</v>
+        <v>-65.11642205434822</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002866666666666662</v>
       </c>
       <c r="B87">
-        <v>-431.3416972701807</v>
+        <v>-435.2096743378902</v>
       </c>
       <c r="C87">
-        <v>568.3413597428903</v>
+        <v>575.9036846038098</v>
       </c>
       <c r="D87">
-        <v>-136.9996624727096</v>
+        <v>-140.6940102659196</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002899999999999995</v>
       </c>
       <c r="B88">
-        <v>-392.2246181964724</v>
+        <v>-397.8216870083966</v>
       </c>
       <c r="C88">
-        <v>617.1471493974273</v>
+        <v>632.8592962201691</v>
       </c>
       <c r="D88">
-        <v>-224.9225312009549</v>
+        <v>-235.0376092117725</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002933333333333328</v>
       </c>
       <c r="B89">
-        <v>-363.3325454473849</v>
+        <v>-376.7532198893021</v>
       </c>
       <c r="C89">
-        <v>656.337755527494</v>
+        <v>682.48522410428</v>
       </c>
       <c r="D89">
-        <v>-293.0052100801092</v>
+        <v>-305.7320042149779</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002966666666666661</v>
       </c>
       <c r="B90">
-        <v>-349.2418637141052</v>
+        <v>-357.3039999350044</v>
       </c>
       <c r="C90">
-        <v>674.4710837686799</v>
+        <v>682.3017778363517</v>
       </c>
       <c r="D90">
-        <v>-325.2292200545747</v>
+        <v>-324.9977779013473</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage5000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage5000.xlsx
@@ -408,13 +408,13 @@
         <v>3.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>-328.1949133013741</v>
+        <v>-332.9703661955223</v>
       </c>
       <c r="C2">
-        <v>687.902741989186</v>
+        <v>691.7297541372561</v>
       </c>
       <c r="D2">
-        <v>-359.7078286878119</v>
+        <v>-358.7593879417338</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B3">
-        <v>-301.0718095251143</v>
+        <v>-300.4118863496767</v>
       </c>
       <c r="C3">
-        <v>676.7819749361754</v>
+        <v>673.0614678626043</v>
       </c>
       <c r="D3">
-        <v>-375.7101654110612</v>
+        <v>-372.6495815129276</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001</v>
       </c>
       <c r="B4">
-        <v>-239.5168968022394</v>
+        <v>-231.7172547772438</v>
       </c>
       <c r="C4">
-        <v>641.8776214923939</v>
+        <v>632.7943342379301</v>
       </c>
       <c r="D4">
-        <v>-402.3607246901544</v>
+        <v>-401.0770794606863</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B5">
-        <v>-134.9794872977241</v>
+        <v>-140.8970526759854</v>
       </c>
       <c r="C5">
-        <v>568.3574461326684</v>
+        <v>580.7806339333818</v>
       </c>
       <c r="D5">
-        <v>-433.3779588349443</v>
+        <v>-439.8835812573963</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B6">
-        <v>-63.97138881841582</v>
+        <v>-67.93733451907616</v>
       </c>
       <c r="C6">
-        <v>550.370454797051</v>
+        <v>547.4503214460375</v>
       </c>
       <c r="D6">
-        <v>-486.3990659786352</v>
+        <v>-479.5129869269613</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002</v>
       </c>
       <c r="B7">
-        <v>-32.26820757515208</v>
+        <v>-30.37827369491222</v>
       </c>
       <c r="C7">
-        <v>534.4663385444953</v>
+        <v>529.1712223266796</v>
       </c>
       <c r="D7">
-        <v>-502.1981309693432</v>
+        <v>-498.7929486317674</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002333333333333334</v>
       </c>
       <c r="B8">
-        <v>-12.06916202229763</v>
+        <v>-8.412882358449508</v>
       </c>
       <c r="C8">
-        <v>526.8337872947283</v>
+        <v>533.6857692693284</v>
       </c>
       <c r="D8">
-        <v>-514.7646252724306</v>
+        <v>-525.2728869108789</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B9">
-        <v>9.264667730182055</v>
+        <v>7.93924199678915</v>
       </c>
       <c r="C9">
-        <v>517.1683604126531</v>
+        <v>525.8756982620383</v>
       </c>
       <c r="D9">
-        <v>-526.4330281428352</v>
+        <v>-533.8149402588275</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003000000000000001</v>
       </c>
       <c r="B10">
-        <v>32.75817459683569</v>
+        <v>30.24630858568869</v>
       </c>
       <c r="C10">
-        <v>498.4025501928263</v>
+        <v>500.7085435412631</v>
       </c>
       <c r="D10">
-        <v>-531.160724789662</v>
+        <v>-530.9548521269518</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B11">
-        <v>65.76489837372552</v>
+        <v>67.26192829346402</v>
       </c>
       <c r="C11">
-        <v>492.5719477857966</v>
+        <v>481.6551971956045</v>
       </c>
       <c r="D11">
-        <v>-558.3368461595221</v>
+        <v>-548.9171254890684</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003666666666666668</v>
       </c>
       <c r="B12">
-        <v>140.9817060836469</v>
+        <v>140.7631066825274</v>
       </c>
       <c r="C12">
-        <v>435.2316370974463</v>
+        <v>441.3682739132835</v>
       </c>
       <c r="D12">
-        <v>-576.2133431810933</v>
+        <v>-582.1313805958109</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B13">
-        <v>233.6414950883353</v>
+        <v>229.9511096962345</v>
       </c>
       <c r="C13">
-        <v>397.1721599032191</v>
+        <v>401.7056230661813</v>
       </c>
       <c r="D13">
-        <v>-630.8136549915544</v>
+        <v>-631.6567327624157</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004333333333333335</v>
       </c>
       <c r="B14">
-        <v>304.6043524718062</v>
+        <v>299.5787014755277</v>
       </c>
       <c r="C14">
-        <v>375.483459441808</v>
+        <v>372.1981632100798</v>
       </c>
       <c r="D14">
-        <v>-680.0878119136141</v>
+        <v>-671.7768646856075</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B15">
-        <v>325.9211529056141</v>
+        <v>332.3833130118178</v>
       </c>
       <c r="C15">
-        <v>357.6072890562241</v>
+        <v>357.5088688987822</v>
       </c>
       <c r="D15">
-        <v>-683.5284419618382</v>
+        <v>-689.8921819106</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B16">
-        <v>349.5943896481099</v>
+        <v>354.7338959752045</v>
       </c>
       <c r="C16">
-        <v>350.9815193556219</v>
+        <v>354.3275055087614</v>
       </c>
       <c r="D16">
-        <v>-700.5759090037318</v>
+        <v>-709.0614014839659</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B17">
-        <v>357.5927659281057</v>
+        <v>357.6824059844135</v>
       </c>
       <c r="C17">
-        <v>328.4697394241122</v>
+        <v>332.8353018655625</v>
       </c>
       <c r="D17">
-        <v>-686.0625053522178</v>
+        <v>-690.517707849976</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0005666666666666668</v>
       </c>
       <c r="B18">
-        <v>375.7190369718205</v>
+        <v>371.6126042754793</v>
       </c>
       <c r="C18">
-        <v>302.3446645989379</v>
+        <v>300.6187395016201</v>
       </c>
       <c r="D18">
-        <v>-678.0637015707584</v>
+        <v>-672.2313437770994</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B19">
-        <v>403.9815369221459</v>
+        <v>401.7114387750209</v>
       </c>
       <c r="C19">
-        <v>239.7012114110579</v>
+        <v>232.6327964126275</v>
       </c>
       <c r="D19">
-        <v>-643.6827483332038</v>
+        <v>-634.3442351876483</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0006333333333333335</v>
       </c>
       <c r="B20">
-        <v>434.8042390697377</v>
+        <v>441.3248446230684</v>
       </c>
       <c r="C20">
-        <v>136.3974203371178</v>
+        <v>141.0225943307045</v>
       </c>
       <c r="D20">
-        <v>-571.2016594068555</v>
+        <v>-582.3474389537729</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B21">
-        <v>488.1392717400645</v>
+        <v>480.574175237747</v>
       </c>
       <c r="C21">
-        <v>65.19610954837873</v>
+        <v>67.77013459109139</v>
       </c>
       <c r="D21">
-        <v>-553.3353812884433</v>
+        <v>-548.3443098288384</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007000000000000002</v>
       </c>
       <c r="B22">
-        <v>502.268425348233</v>
+        <v>499.3791701859431</v>
       </c>
       <c r="C22">
-        <v>32.90511053245581</v>
+        <v>30.71767504649881</v>
       </c>
       <c r="D22">
-        <v>-535.1735358806889</v>
+        <v>-530.0968452324419</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B23">
-        <v>515.7642316890144</v>
+        <v>525.4289125099649</v>
       </c>
       <c r="C23">
-        <v>10.99511020001762</v>
+        <v>8.498301461035823</v>
       </c>
       <c r="D23">
-        <v>-526.7593418890322</v>
+        <v>-533.9272139710008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0007666666666666669</v>
       </c>
       <c r="B24">
-        <v>528.9070997441837</v>
+        <v>533.4654397415145</v>
       </c>
       <c r="C24">
-        <v>-10.6141069381803</v>
+        <v>-8.23502579267236</v>
       </c>
       <c r="D24">
-        <v>-518.2929928060034</v>
+        <v>-525.2304139488422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B25">
-        <v>532.4141703196823</v>
+        <v>531.6152005728434</v>
       </c>
       <c r="C25">
-        <v>-32.62774845100358</v>
+        <v>-30.71415932199005</v>
       </c>
       <c r="D25">
-        <v>-499.7864218686786</v>
+        <v>-500.9010412508533</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0008333333333333336</v>
       </c>
       <c r="B26">
-        <v>556.895657943634</v>
+        <v>549.8912024328613</v>
       </c>
       <c r="C26">
-        <v>-64.20741215542381</v>
+        <v>-67.34444242117652</v>
       </c>
       <c r="D26">
-        <v>-492.6882457882101</v>
+        <v>-482.5467600116848</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B27">
-        <v>573.7779371578722</v>
+        <v>583.455740070403</v>
       </c>
       <c r="C27">
-        <v>-138.7551748951082</v>
+        <v>-140.6821945252615</v>
       </c>
       <c r="D27">
-        <v>-435.022762262764</v>
+        <v>-442.7735455451415</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0009000000000000003</v>
       </c>
       <c r="B28">
-        <v>631.7826815302572</v>
+        <v>633.7897175702988</v>
       </c>
       <c r="C28">
-        <v>-234.0476939807622</v>
+        <v>-230.7046835510737</v>
       </c>
       <c r="D28">
-        <v>-397.734987549495</v>
+        <v>-403.085034019225</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B29">
-        <v>682.8351396496068</v>
+        <v>672.8932967924817</v>
       </c>
       <c r="C29">
-        <v>-305.8524150073418</v>
+        <v>-300.3508247930723</v>
       </c>
       <c r="D29">
-        <v>-376.982724642265</v>
+        <v>-372.5424719994094</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.000966666666666667</v>
       </c>
       <c r="B30">
-        <v>685.87592640914</v>
+        <v>690.2461003305818</v>
       </c>
       <c r="C30">
-        <v>-326.8873653971882</v>
+        <v>-332.8579557965699</v>
       </c>
       <c r="D30">
-        <v>-358.9885610119518</v>
+        <v>-357.388144534012</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001</v>
       </c>
       <c r="B31">
-        <v>699.104021951812</v>
+        <v>708.5739766414662</v>
       </c>
       <c r="C31">
-        <v>-349.4752166817178</v>
+        <v>-354.5965049447319</v>
       </c>
       <c r="D31">
-        <v>-349.6288052700941</v>
+        <v>-353.9774716967343</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001033333333333334</v>
       </c>
       <c r="B32">
-        <v>681.8110527408921</v>
+        <v>689.8587490086677</v>
       </c>
       <c r="C32">
-        <v>-356.607686612186</v>
+        <v>-357.6322453400217</v>
       </c>
       <c r="D32">
-        <v>-325.2033661287061</v>
+        <v>-332.2265036686461</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B33">
-        <v>676.1407325785822</v>
+        <v>671.5660804359545</v>
       </c>
       <c r="C33">
-        <v>-375.0110354085526</v>
+        <v>-371.7512160598766</v>
       </c>
       <c r="D33">
-        <v>-301.1296971700297</v>
+        <v>-299.814864376078</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0011</v>
       </c>
       <c r="B34">
-        <v>644.1893022039051</v>
+        <v>633.6516787196337</v>
       </c>
       <c r="C34">
-        <v>-403.3898033870827</v>
+        <v>-401.4352743516602</v>
       </c>
       <c r="D34">
-        <v>-240.7994988168224</v>
+        <v>-232.2164043679735</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B35">
-        <v>569.8976393632545</v>
+        <v>581.9991545445089</v>
       </c>
       <c r="C35">
-        <v>-433.218953128655</v>
+        <v>-440.8001743536803</v>
       </c>
       <c r="D35">
-        <v>-136.6786862345995</v>
+        <v>-141.1989801908285</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B36">
-        <v>550.820765700571</v>
+        <v>548.0624146349141</v>
       </c>
       <c r="C36">
-        <v>-486.6180036283788</v>
+        <v>-480.0376994286763</v>
       </c>
       <c r="D36">
-        <v>-64.20276207219217</v>
+        <v>-68.02471520623783</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.0012</v>
       </c>
       <c r="B37">
-        <v>534.486509855181</v>
+        <v>530.1803425839441</v>
       </c>
       <c r="C37">
-        <v>-502.7277756627202</v>
+        <v>-499.6472729653243</v>
       </c>
       <c r="D37">
-        <v>-31.75873419246079</v>
+        <v>-30.53306961861986</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001233333333333334</v>
       </c>
       <c r="B38">
-        <v>526.7460843259221</v>
+        <v>533.9147572949037</v>
       </c>
       <c r="C38">
-        <v>-515.3524438519263</v>
+        <v>-525.6258088041996</v>
       </c>
       <c r="D38">
-        <v>-11.39364047399587</v>
+        <v>-8.288948490704087</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B39">
-        <v>518.3844836126357</v>
+        <v>525.9902853572194</v>
       </c>
       <c r="C39">
-        <v>-527.9831845506983</v>
+        <v>-534.1953710428536</v>
       </c>
       <c r="D39">
-        <v>9.598700938062677</v>
+        <v>8.205085685634288</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.0013</v>
       </c>
       <c r="B40">
-        <v>499.4230162833638</v>
+        <v>500.1243606099745</v>
       </c>
       <c r="C40">
-        <v>-531.7818233414374</v>
+        <v>-530.5654989020361</v>
       </c>
       <c r="D40">
-        <v>32.35880705807355</v>
+        <v>30.44113829206162</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B41">
-        <v>494.2331163664467</v>
+        <v>481.7511995835466</v>
       </c>
       <c r="C41">
-        <v>-559.2784734827912</v>
+        <v>-549.014172952711</v>
       </c>
       <c r="D41">
-        <v>65.04535711634449</v>
+        <v>67.26297336916431</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001366666666666667</v>
       </c>
       <c r="B42">
-        <v>435.2978021793583</v>
+        <v>442.0371990962527</v>
       </c>
       <c r="C42">
-        <v>-575.8670298998779</v>
+        <v>-582.8157693571645</v>
       </c>
       <c r="D42">
-        <v>140.5692277205196</v>
+        <v>140.7785702609119</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.0014</v>
       </c>
       <c r="B43">
-        <v>397.8560337080997</v>
+        <v>402.1976987130085</v>
       </c>
       <c r="C43">
-        <v>-632.7543200582877</v>
+        <v>-632.6337102278524</v>
       </c>
       <c r="D43">
-        <v>234.898286350188</v>
+        <v>230.4360115148438</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001433333333333334</v>
       </c>
       <c r="B44">
-        <v>376.7850039906595</v>
+        <v>372.3462788662313</v>
       </c>
       <c r="C44">
-        <v>-682.4669530360296</v>
+        <v>-672.5877849887177</v>
       </c>
       <c r="D44">
-        <v>305.6819490453701</v>
+        <v>300.2415061224863</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B45">
-        <v>357.3194275597724</v>
+        <v>357.904155647918</v>
       </c>
       <c r="C45">
-        <v>-682.2823719648402</v>
+        <v>-691.2793284187961</v>
       </c>
       <c r="D45">
-        <v>324.9629444050678</v>
+        <v>333.3751727708781</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.0015</v>
       </c>
       <c r="B46">
-        <v>352.0032557889103</v>
+        <v>355.0121141120601</v>
       </c>
       <c r="C46">
-        <v>-703.4216841990758</v>
+        <v>-710.7499573116197</v>
       </c>
       <c r="D46">
-        <v>351.4184284101655</v>
+        <v>355.7378431995596</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B47">
-        <v>328.1589170146156</v>
+        <v>332.9273816907618</v>
       </c>
       <c r="C47">
-        <v>-687.8808036306121</v>
+        <v>-691.6940831371878</v>
       </c>
       <c r="D47">
-        <v>359.7218866159965</v>
+        <v>358.7667014464259</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001566666666666667</v>
       </c>
       <c r="B48">
-        <v>301.0319875942285</v>
+        <v>300.3525797080846</v>
       </c>
       <c r="C48">
-        <v>-676.7814291845964</v>
+        <v>-673.0333813022044</v>
       </c>
       <c r="D48">
-        <v>375.749441590368</v>
+        <v>372.6808015941198</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B49">
-        <v>239.3615964863156</v>
+        <v>231.5835673706191</v>
       </c>
       <c r="C49">
-        <v>-641.7549701191291</v>
+        <v>-632.7128735888163</v>
       </c>
       <c r="D49">
-        <v>402.3933736328135</v>
+        <v>401.1293062181972</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001633333333333334</v>
       </c>
       <c r="B50">
-        <v>134.8554646793544</v>
+        <v>140.7769560271339</v>
       </c>
       <c r="C50">
-        <v>-568.3024243312981</v>
+        <v>-580.7189458512302</v>
       </c>
       <c r="D50">
-        <v>433.4469596519436</v>
+        <v>439.9419898240962</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B51">
-        <v>63.89480597668722</v>
+        <v>67.85588172216058</v>
       </c>
       <c r="C51">
-        <v>-550.3552051055178</v>
+        <v>-547.4126679417915</v>
       </c>
       <c r="D51">
-        <v>486.4603991288306</v>
+        <v>479.5567862196309</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001700000000000001</v>
       </c>
       <c r="B52">
-        <v>32.24222775375651</v>
+        <v>30.3416270966639</v>
       </c>
       <c r="C52">
-        <v>-534.4369485136004</v>
+        <v>-529.1640230316242</v>
       </c>
       <c r="D52">
-        <v>502.1947207598439</v>
+        <v>498.8223959349603</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B53">
-        <v>12.04071653991349</v>
+        <v>8.387654031440093</v>
       </c>
       <c r="C53">
-        <v>-526.8417447060615</v>
+        <v>-533.6964670280768</v>
       </c>
       <c r="D53">
-        <v>514.8010281661479</v>
+        <v>525.3088129966366</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001766666666666667</v>
       </c>
       <c r="B54">
-        <v>-9.297216229779679</v>
+        <v>-7.965521574936076</v>
       </c>
       <c r="C54">
-        <v>-517.1352598882638</v>
+        <v>-525.8393982175679</v>
       </c>
       <c r="D54">
-        <v>526.4324761180435</v>
+        <v>533.8049197925041</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B55">
-        <v>-32.79868613841748</v>
+        <v>-30.28402319991199</v>
       </c>
       <c r="C55">
-        <v>-498.3808701759217</v>
+        <v>-500.6833504224389</v>
       </c>
       <c r="D55">
-        <v>531.1795563143392</v>
+        <v>530.9673736223509</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B56">
-        <v>-65.83657875391464</v>
+        <v>-67.34145727256762</v>
       </c>
       <c r="C56">
-        <v>-492.539094777574</v>
+        <v>-481.6076951019344</v>
       </c>
       <c r="D56">
-        <v>558.3756735314886</v>
+        <v>548.9491523745021</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B57">
-        <v>-141.1035611626414</v>
+        <v>-140.8844646812388</v>
       </c>
       <c r="C57">
-        <v>-435.1448144465272</v>
+        <v>-441.3103870039838</v>
       </c>
       <c r="D57">
-        <v>576.2483756091686</v>
+        <v>582.1948516852226</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001900000000000001</v>
       </c>
       <c r="B58">
-        <v>-233.7793028248485</v>
+        <v>-230.0821060446614</v>
       </c>
       <c r="C58">
-        <v>-397.136873481926</v>
+        <v>-401.6525693732327</v>
       </c>
       <c r="D58">
-        <v>630.9161763067746</v>
+        <v>631.7346754178941</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B59">
-        <v>-304.6579686482739</v>
+        <v>-299.6404676378344</v>
       </c>
       <c r="C59">
-        <v>-375.4537898364937</v>
+        <v>-372.1653787908233</v>
       </c>
       <c r="D59">
-        <v>680.1117584847675</v>
+        <v>671.8058464286577</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001966666666666667</v>
       </c>
       <c r="B60">
-        <v>-325.9548152854022</v>
+        <v>-332.4281533004039</v>
       </c>
       <c r="C60">
-        <v>-357.5909799613038</v>
+        <v>-357.5016403982299</v>
       </c>
       <c r="D60">
-        <v>683.5457952467059</v>
+        <v>689.9297936986338</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002</v>
       </c>
       <c r="B61">
-        <v>-349.6162631182635</v>
+        <v>-354.7472339096361</v>
       </c>
       <c r="C61">
-        <v>-350.9625798673584</v>
+        <v>-354.3147851304319</v>
       </c>
       <c r="D61">
-        <v>700.5788429856218</v>
+        <v>709.062019040068</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002033333333333334</v>
       </c>
       <c r="B62">
-        <v>-357.6052633512905</v>
+        <v>-357.6863920934977</v>
       </c>
       <c r="C62">
-        <v>-328.4339385291938</v>
+        <v>-332.7911963837325</v>
       </c>
       <c r="D62">
-        <v>686.0392018804844</v>
+        <v>690.4775884772303</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B63">
-        <v>-375.7639357138087</v>
+        <v>-371.6468990709782</v>
       </c>
       <c r="C63">
-        <v>-302.3065800980541</v>
+        <v>-300.5603013977755</v>
       </c>
       <c r="D63">
-        <v>678.0705158118628</v>
+        <v>672.2072004687537</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0021</v>
       </c>
       <c r="B64">
-        <v>-404.0145111809499</v>
+        <v>-401.7659718950699</v>
       </c>
       <c r="C64">
-        <v>-239.5444611133564</v>
+        <v>-232.4990571208344</v>
       </c>
       <c r="D64">
-        <v>643.5589722943064</v>
+        <v>634.2650290159042</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002133333333333333</v>
       </c>
       <c r="B65">
-        <v>-434.8729277588869</v>
+        <v>-441.3822501389849</v>
       </c>
       <c r="C65">
-        <v>-136.2737285582533</v>
+        <v>-140.9007467746817</v>
       </c>
       <c r="D65">
-        <v>571.1466563171402</v>
+        <v>582.2829969136667</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B66">
-        <v>-488.2022047426152</v>
+        <v>-480.6228930670616</v>
       </c>
       <c r="C66">
-        <v>-65.12082124161407</v>
+        <v>-67.69039356566421</v>
       </c>
       <c r="D66">
-        <v>553.3230259842293</v>
+        <v>548.3132866327259</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002199999999999999</v>
       </c>
       <c r="B67">
-        <v>-502.2659884885137</v>
+        <v>-499.400079741828</v>
       </c>
       <c r="C67">
-        <v>-32.87614533143412</v>
+        <v>-30.68019391128178</v>
       </c>
       <c r="D67">
-        <v>535.1421338199478</v>
+        <v>530.0802736531098</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002233333333333332</v>
       </c>
       <c r="B68">
-        <v>-515.7987084767915</v>
+        <v>-525.465602948198</v>
       </c>
       <c r="C68">
-        <v>-10.96565839924651</v>
+        <v>-8.472910091241602</v>
       </c>
       <c r="D68">
-        <v>526.764366876038</v>
+        <v>533.9385130394396</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002266666666666666</v>
       </c>
       <c r="B69">
-        <v>-528.9065826060348</v>
+        <v>-533.4560613536012</v>
       </c>
       <c r="C69">
-        <v>10.6461200680863</v>
+        <v>8.26212341891798</v>
       </c>
       <c r="D69">
-        <v>518.2604625379485</v>
+        <v>525.1939379346832</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002299999999999999</v>
       </c>
       <c r="B70">
-        <v>-532.430334687073</v>
+        <v>-531.6305608724</v>
       </c>
       <c r="C70">
-        <v>32.66534107350392</v>
+        <v>30.75157840273721</v>
       </c>
       <c r="D70">
-        <v>499.7649936135691</v>
+        <v>500.8789824696628</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002333333333333332</v>
       </c>
       <c r="B71">
-        <v>-556.9339933240849</v>
+        <v>-549.9258456414605</v>
       </c>
       <c r="C71">
-        <v>64.27750553256593</v>
+        <v>67.42367095221024</v>
       </c>
       <c r="D71">
-        <v>492.656487791519</v>
+        <v>482.5021746892503</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002366666666666665</v>
       </c>
       <c r="B72">
-        <v>-573.8097707774377</v>
+        <v>-583.518071675645</v>
       </c>
       <c r="C72">
-        <v>138.8776698065267</v>
+        <v>140.8035969151699</v>
       </c>
       <c r="D72">
-        <v>434.9321009709111</v>
+        <v>442.7144747604752</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002399999999999998</v>
       </c>
       <c r="B73">
-        <v>-631.8918272758591</v>
+        <v>-633.8684296422761</v>
       </c>
       <c r="C73">
-        <v>234.1894182660897</v>
+        <v>230.8373396949587</v>
       </c>
       <c r="D73">
-        <v>397.7024090097694</v>
+        <v>403.0310899473174</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002433333333333331</v>
       </c>
       <c r="B74">
-        <v>-682.8593709990799</v>
+        <v>-672.9209330394747</v>
       </c>
       <c r="C74">
-        <v>305.9058551923233</v>
+        <v>300.4120226619056</v>
       </c>
       <c r="D74">
-        <v>376.9535158067567</v>
+        <v>372.508910377569</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002466666666666664</v>
       </c>
       <c r="B75">
-        <v>-685.8886589093781</v>
+        <v>-690.2791125467118</v>
       </c>
       <c r="C75">
-        <v>326.9191305198763</v>
+        <v>332.9003231129258</v>
       </c>
       <c r="D75">
-        <v>358.9695283895019</v>
+        <v>357.3787894337859</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002499999999999997</v>
       </c>
       <c r="B76">
-        <v>-699.10529929267</v>
+        <v>-708.5763846489224</v>
       </c>
       <c r="C76">
-        <v>349.4972945169681</v>
+        <v>354.6111555839622</v>
       </c>
       <c r="D76">
-        <v>349.6080047757019</v>
+        <v>353.9652290649602</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002533333333333331</v>
       </c>
       <c r="B77">
-        <v>-681.785838445928</v>
+        <v>-689.8227764711995</v>
       </c>
       <c r="C77">
-        <v>356.6197267732604</v>
+        <v>357.6395478207556</v>
       </c>
       <c r="D77">
-        <v>325.1661116726676</v>
+        <v>332.1832286504439</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002566666666666664</v>
       </c>
       <c r="B78">
-        <v>-676.1467777779795</v>
+        <v>-671.5401473063008</v>
       </c>
       <c r="C78">
-        <v>375.0520139389434</v>
+        <v>371.7838980160506</v>
       </c>
       <c r="D78">
-        <v>301.0947638390361</v>
+        <v>299.7562492902503</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002599999999999997</v>
       </c>
       <c r="B79">
-        <v>-644.073011547214</v>
+        <v>-633.5705454604267</v>
       </c>
       <c r="C79">
-        <v>403.4260866918037</v>
+        <v>401.4875959709166</v>
       </c>
       <c r="D79">
-        <v>240.6469248554102</v>
+        <v>232.0829494895101</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00263333333333333</v>
       </c>
       <c r="B80">
-        <v>-569.8373104944442</v>
+        <v>-581.9322301583718</v>
       </c>
       <c r="C80">
-        <v>433.2862235224638</v>
+        <v>440.8547443958882</v>
       </c>
       <c r="D80">
-        <v>136.5510869719803</v>
+        <v>141.0774857624835</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002666666666666663</v>
       </c>
       <c r="B81">
-        <v>-550.8108994631414</v>
+        <v>-548.0304649331672</v>
       </c>
       <c r="C81">
-        <v>486.6848132687011</v>
+        <v>480.0865927039012</v>
       </c>
       <c r="D81">
-        <v>64.12608619444026</v>
+        <v>67.94387222926605</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002699999999999996</v>
       </c>
       <c r="B82">
-        <v>-534.4530735883985</v>
+        <v>-530.1684740563621</v>
       </c>
       <c r="C82">
-        <v>502.7222698913494</v>
+        <v>499.6730434747635</v>
       </c>
       <c r="D82">
-        <v>31.73080369704914</v>
+        <v>30.49543058159867</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002733333333333329</v>
       </c>
       <c r="B83">
-        <v>-526.7544973156315</v>
+        <v>-533.9275278543047</v>
       </c>
       <c r="C83">
-        <v>515.3880889166112</v>
+        <v>525.6639746720873</v>
       </c>
       <c r="D83">
-        <v>11.36640839902032</v>
+        <v>8.263553182217407</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002766666666666663</v>
       </c>
       <c r="B84">
-        <v>-518.3507351613869</v>
+        <v>-525.9502855275048</v>
       </c>
       <c r="C84">
-        <v>527.9812108655748</v>
+        <v>534.1817705462211</v>
       </c>
       <c r="D84">
-        <v>-9.630475704187916</v>
+        <v>-8.231485018716342</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002799999999999996</v>
       </c>
       <c r="B85">
-        <v>-499.4031062401027</v>
+        <v>-500.098385947941</v>
       </c>
       <c r="C85">
-        <v>531.8013931533189</v>
+        <v>530.5763481996169</v>
       </c>
       <c r="D85">
-        <v>-32.39828691321623</v>
+        <v>-30.47796225167588</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002833333333333329</v>
       </c>
       <c r="B86">
-        <v>-494.2006445146902</v>
+        <v>-481.7084684153701</v>
       </c>
       <c r="C86">
-        <v>559.3170665690385</v>
+        <v>549.0508615595638</v>
       </c>
       <c r="D86">
-        <v>-65.11642205434822</v>
+        <v>-67.34239314419369</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002866666666666662</v>
       </c>
       <c r="B87">
-        <v>-435.2096743378902</v>
+        <v>-441.9786281877204</v>
       </c>
       <c r="C87">
-        <v>575.9036846038098</v>
+        <v>582.8799945180027</v>
       </c>
       <c r="D87">
-        <v>-140.6940102659196</v>
+        <v>-140.9013663302823</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002899999999999995</v>
       </c>
       <c r="B88">
-        <v>-397.8216870083966</v>
+        <v>-402.1451387137499</v>
       </c>
       <c r="C88">
-        <v>632.8592962201691</v>
+        <v>632.7127315476156</v>
       </c>
       <c r="D88">
-        <v>-235.0376092117725</v>
+        <v>-230.5675928338657</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002933333333333328</v>
       </c>
       <c r="B89">
-        <v>-376.7532198893021</v>
+        <v>-372.3114809165324</v>
       </c>
       <c r="C89">
-        <v>682.48522410428</v>
+        <v>672.6131217629026</v>
       </c>
       <c r="D89">
-        <v>-305.7320042149779</v>
+        <v>-300.3016408463701</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002966666666666661</v>
       </c>
       <c r="B90">
-        <v>-357.3039999350044</v>
+        <v>-357.8986290784819</v>
       </c>
       <c r="C90">
-        <v>682.3017778363517</v>
+        <v>691.3191479509702</v>
       </c>
       <c r="D90">
-        <v>-324.9977779013473</v>
+        <v>-333.4205188724883</v>
       </c>
     </row>
   </sheetData>
